--- a/CIS/CIS_RULES_with_playbook_comment.xlsx
+++ b/CIS/CIS_RULES_with_playbook_comment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\python_project\project3\ansible\CIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0C33873-BFAC-49BB-A536-28883111F94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB70923-7CC6-4730-914B-00CA0D7FCBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A78F8873-882E-4DAF-84F8-439D68AAC4A5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="162">
   <si>
     <t>2.4 Ensure unused symbolic links are removed</t>
   </si>
@@ -505,6 +505,12 @@
   </si>
   <si>
     <t>Rollback is alt_disk</t>
+  </si>
+  <si>
+    <t>rollback mksysb</t>
+  </si>
+  <si>
+    <t>rollback alt_disk or manual</t>
   </si>
 </sst>
 </file>
@@ -894,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A95FC29-CCDC-4096-81D4-2F756E9CFA27}">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1135,21 +1141,33 @@
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="C28" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="C29" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="C30" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
@@ -1176,99 +1194,99 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D37" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D39" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D40" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s">
         <v>158</v>
@@ -1531,28 +1549,43 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="C76" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="C77" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="C79" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" s="4" t="s">
         <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -1799,228 +1832,369 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="C111" s="5" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="C112" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="C113" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="C114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="C115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C124" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+      <c r="C131" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="C132" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="C133" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1" t="s">
+      <c r="C134" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="C135" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="C136" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+      <c r="C137" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="C138" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="C139" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="C140" t="s">
+        <v>156</v>
+      </c>
+      <c r="E140" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+      <c r="C141" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="C142" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+      <c r="C143" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C144" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C145" t="s">
+        <v>156</v>
+      </c>
+      <c r="E145" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C146" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C147" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C148" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C149" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C150" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C151" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+      <c r="C152" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+      <c r="C153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+      <c r="C154" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
         <v>153</v>
+      </c>
+      <c r="C155" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
